--- a/NatmiData/natmiOut_TPM/YoungD0/LR-pairs_lrc2p/Fgg-Itgb2.xlsx
+++ b/NatmiData/natmiOut_TPM/YoungD0/LR-pairs_lrc2p/Fgg-Itgb2.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="24">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -86,9 +86,6 @@
   </si>
   <si>
     <t>ECs</t>
-  </si>
-  <si>
-    <t>MuSCs</t>
   </si>
 </sst>
 </file>
@@ -446,7 +443,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T4"/>
+  <dimension ref="A1:T3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -546,34 +543,34 @@
         <v>1</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L2">
-        <v>0.3333333333333333</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M2">
-        <v>76.13138833333333</v>
+        <v>0.05619066666666667</v>
       </c>
       <c r="N2">
-        <v>228.394165</v>
+        <v>0.168572</v>
       </c>
       <c r="O2">
-        <v>0.9985083984418027</v>
+        <v>0.3931387525216601</v>
       </c>
       <c r="P2">
-        <v>0.9985083984418027</v>
+        <v>0.39313875252166</v>
       </c>
       <c r="Q2">
-        <v>140.5041822300656</v>
+        <v>0.1037026099457778</v>
       </c>
       <c r="R2">
-        <v>1264.53764007059</v>
+        <v>0.9333234895120001</v>
       </c>
       <c r="S2">
-        <v>0.9985083984418027</v>
+        <v>0.3931387525216601</v>
       </c>
       <c r="T2">
-        <v>0.9985083984418027</v>
+        <v>0.39313875252166</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -620,10 +617,10 @@
         <v>0.260213</v>
       </c>
       <c r="O3">
-        <v>0.001137616041476965</v>
+        <v>0.60686124747834</v>
       </c>
       <c r="P3">
-        <v>0.001137616041476965</v>
+        <v>0.60686124747834</v>
       </c>
       <c r="Q3">
         <v>0.1600785850664445</v>
@@ -632,72 +629,10 @@
         <v>1.440707265598</v>
       </c>
       <c r="S3">
-        <v>0.001137616041476965</v>
+        <v>0.60686124747834</v>
       </c>
       <c r="T3">
-        <v>0.001137616041476965</v>
-      </c>
-    </row>
-    <row r="4" spans="1:20">
-      <c r="A4" t="s">
-        <v>20</v>
-      </c>
-      <c r="B4" t="s">
-        <v>21</v>
-      </c>
-      <c r="C4" t="s">
-        <v>22</v>
-      </c>
-      <c r="D4" t="s">
-        <v>24</v>
-      </c>
-      <c r="E4">
-        <v>1</v>
-      </c>
-      <c r="F4">
-        <v>0.3333333333333333</v>
-      </c>
-      <c r="G4">
-        <v>1.845548666666667</v>
-      </c>
-      <c r="H4">
-        <v>5.536646</v>
-      </c>
-      <c r="I4">
-        <v>1</v>
-      </c>
-      <c r="J4">
-        <v>1</v>
-      </c>
-      <c r="K4">
-        <v>1</v>
-      </c>
-      <c r="L4">
-        <v>0.3333333333333333</v>
-      </c>
-      <c r="M4">
-        <v>0.02698966666666667</v>
-      </c>
-      <c r="N4">
-        <v>0.080969</v>
-      </c>
-      <c r="O4">
-        <v>0.0003539855167203345</v>
-      </c>
-      <c r="P4">
-        <v>0.0003539855167203345</v>
-      </c>
-      <c r="Q4">
-        <v>0.04981074333044444</v>
-      </c>
-      <c r="R4">
-        <v>0.448296689974</v>
-      </c>
-      <c r="S4">
-        <v>0.0003539855167203345</v>
-      </c>
-      <c r="T4">
-        <v>0.0003539855167203345</v>
+        <v>0.60686124747834</v>
       </c>
     </row>
   </sheetData>
